--- a/data/trans_camb/P35A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P35A_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,16</t>
+          <t>-3,6; 2,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 4,68</t>
+          <t>-2,21; 4,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 12,35</t>
+          <t>3,95; 11,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,29</t>
+          <t>-8,71; -0,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 5,68</t>
+          <t>-2,42; 4,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 9,73</t>
+          <t>-0,56; 3,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,39</t>
+          <t>-1,65; 2,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,69</t>
+          <t>1,16; 6,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 10,12</t>
+          <t>-3,84; 1,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 4,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 2,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 2,3</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 7,82</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 0,07</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 3,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,22%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>101,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>-10,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>97,05%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-21,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>23,48%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,34; 36,7</t>
+          <t>-37,08; 39,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 41,34</t>
+          <t>-24,23; 62,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 106,98</t>
+          <t>40,33; 187,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 136,45</t>
+          <t>-47,55; -3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 79,31</t>
+          <t>-20,47; 49,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 138,06</t>
+          <t>-11,85; 130,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 41,85</t>
+          <t>-35,04; 75,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 35,65</t>
+          <t>22,21; 231,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 98,04</t>
+          <t>-39,7; 32,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 151,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 48,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 50,75</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>48,17; 162,09</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; 0,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 59,05</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,68</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 4,78</t>
+          <t>-7,07; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 10,43</t>
+          <t>-3,67; 7,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 10,01</t>
+          <t>-3,31; 8,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 12,2</t>
+          <t>-12,3; -2,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 9,06</t>
+          <t>-7,55; 3,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 13,78</t>
+          <t>-1,11; 3,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 5,04</t>
+          <t>-0,75; 3,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 8,92</t>
+          <t>0,34; 4,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 8,82</t>
+          <t>-2,98; 3,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 5,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 2,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 4,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 5,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; -0,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 2,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>-48,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>-17,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>40,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>53,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>101,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>-1,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53,71%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35,77%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-36,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 30,3</t>
+          <t>-44,03; 33,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 65,81</t>
+          <t>-25,32; 76,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 65,74</t>
+          <t>-21,66; 83,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 209,75</t>
+          <t>-68,3; -18,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 165,77</t>
+          <t>-57,36; 48,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 230,74</t>
+          <t>-36,93; 239,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 38,88</t>
+          <t>-21,52; 203,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 69,7</t>
+          <t>2,23; 309,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 65,91</t>
+          <t>-50,08; 91,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 257,48</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-37,58; 38,02</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 77,15</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 92,72</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-57,69; -5,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-39,6; 61,9</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,17</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 12,85</t>
+          <t>-6,02; 7,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 17,93</t>
+          <t>-3,47; 11,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-4,39; 12,16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,99; 6,7</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 15,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,47; 1,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 4,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 11,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 8,23</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 14,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 3,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 6,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 8,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-39,28%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-43,34%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,09%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>73,9%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-4,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>38,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-13,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>32,37%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>55,35%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 186,91</t>
+          <t>-58,67; 173,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 243,66</t>
+          <t>-34,62; 246,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-40,89; 265,99</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-87,03; 99,54</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,83; 179,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-89,41; 115,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-72,0; 175,76</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,28; 433,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-54,54; 90,03</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-26,21; 171,4</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-60,58; 78,35</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-30,63; 152,21</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,11; 192,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 3,36</t>
+          <t>-3,29; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,38</t>
+          <t>-1,06; 4,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 9,36</t>
+          <t>2,34; 8,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,9</t>
+          <t>-7,73; -1,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,17</t>
+          <t>-2,56; 3,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,4</t>
+          <t>-0,48; 2,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,54</t>
+          <t>-0,65; 2,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,12</t>
+          <t>1,74; 5,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,86</t>
+          <t>-2,36; 1,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 4,44</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 1,48</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 2,61</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 5,86</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; -0,52</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 3,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-7,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>-30,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62,33%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>64,6%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-22,39%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 25,78</t>
+          <t>-29,35; 21,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 48,63</t>
+          <t>-9,46; 55,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 67,54</t>
+          <t>20,23; 100,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 91,97</t>
+          <t>-46,7; -10,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 66,5</t>
+          <t>-22,46; 35,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 102,63</t>
+          <t>-12,62; 86,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 30,3</t>
+          <t>-16,92; 74,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 42,58</t>
+          <t>39,39; 194,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 65,17</t>
+          <t>-31,07; 28,19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 136,06</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-21,91; 25,32</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 45,6</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>29,78; 103,83</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-36,41; -5,31</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 47,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
